--- a/backend/arena/execution_sheets/stack.xlsx
+++ b/backend/arena/execution_sheets/stack.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>create</t>
   </si>
@@ -22,19 +22,25 @@
     <t>Stack</t>
   </si>
   <si>
+    <t>__len__</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>append</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>__len__</t>
+    <t>appendleft</t>
   </si>
   <si>
     <t>__getitem__</t>
   </si>
   <si>
     <t>pop</t>
+  </si>
+  <si>
+    <t>clear</t>
   </si>
 </sst>
 </file>
@@ -42,13 +48,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -59,7 +71,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -71,13 +90,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -393,19 +415,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -416,40 +438,38 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1"/>
@@ -459,38 +479,81 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
